--- a/out/production/JavaBatch8/com/syntax/class35/Test.xlsx
+++ b/out/production/JavaBatch8/com/syntax/class35/Test.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="4"/>
